--- a/PLSstatic_predicted_factors_matrix_7.xlsx
+++ b/PLSstatic_predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.994525746929397</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.9457351011890218</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.9106222051086168</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.8857315770269036</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.8685946272891658</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.8573917677612983</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.850747150720463</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.8475997288443589</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.8471193062157878</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.848649844855601</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.8516697824240564</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.8557633092906265</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.8605989417190324</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.8659131155247863</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.8714973476370992</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.8771880119105414</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.8828580847547018</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.8884104121995102</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.8937721772226699</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.8988903306958347</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.9037278068788013</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.9082603846195685</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.9124740842770058</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.9163630116434702</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.919927576221223</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.9231730236666661</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.926108232093103</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.9287447299058236</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.931095899402827</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.9331763358350044</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.9350013362120909</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.9365864960315038</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.9379473954211758</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.9390993590194239</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.9400572763394349</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.9408354714432283</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.9414476125292177</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.941906653560034</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.9422248013581525</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.9424135027060976</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.9424834469314833</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.9424445802576793</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.9423061288776232</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.9420766282790181</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>-0.6246878547243937</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.6136099305992455</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.593589489004088</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.5675216336238453</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.5376507826805728</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.5057006687346104</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.4729779892314853</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.4404561476949728</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.4088432690426253</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.3786375235505542</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.3501721044094818</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3236517325401965</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.2991822101190255</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2767942675417029</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2564627259386615</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.2381218164368061</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.2216773496581226</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.2070163080096521</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.1940143340287117</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.1825415062801698</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.1724667267503437</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.163660987698959</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.1559997394072729</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1493645415135641</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1436441483085383</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.1387351513859837</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.1345422805251358</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.13097844489761</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.1279645810451351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.1254293610677361</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.1233088036780026</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.1215458218649351</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.1200897335736617</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.1188957557934844</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1179244975427899</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1171414632640979</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1165165749417433</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.116023718698023</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1156403196003363</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1153469468283837</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1151269501280124</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1149661275505049</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1148524237871778</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.1147756579128844</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.2736949019290342</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1938708292016891</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1322722045652996</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.08489019091635545</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04866320126913969</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.021218603373357</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0006973071222348337</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.01436932510324779</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.02514842121250571</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.03257138125452373</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.03738344240475381</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.04018160496810629</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.04144404052492874</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.04155316447539682</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.04081392777605402</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.03946845215727982</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.03770783233094406</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.03568171586722679</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.03350611934357278</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.0312698297422393</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.02903966031333385</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.0268647714775545</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.02478022369851427</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.02280989632207481</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.02096888115418849</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.01926543992131226</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.01770259924698502</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.0162794443398169</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.01499216248042481</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.01383487908676396</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.01280032224391343</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.01188034582228265</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.01106633646513517</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.01034952563981482</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.009721224490727926</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.009172996304968518</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.008696778922077656</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.008284967320298651</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.007930464836879496</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.007626709981925496</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.007367684543856036</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.007147907625096644</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.006962419359658393</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.006806757324254637</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>0.3236896836044187</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2480544513917997</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1864008014257563</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1364074528827343</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.09614898476329463</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0640095732251395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0386225535693612</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.01882744669028606</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.003638143718657249</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.007781928047843447</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.01614018486364388</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.02203225286641746</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.02595711379419052</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.02833046380516059</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.02949653382201048</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.02973853152261267</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.0292878270591775</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.02833199023215705</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.02702178203561687</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.02547720129557806</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.02379268455057212</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.0220415533988764</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.02027979822374685</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.01854928084068774</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.01688043161136051</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.01529450932271777</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.01380548494205349</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.01242160344737808</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.01114667144078581</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.009981112263072744</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.008922824879156781</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.007967877902133741</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.007111065754740745</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.00634635010203315</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.005667206292634388</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.005066891577656434</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.004538649295863436</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.004075860980100402</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.003672156415328139</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.003321490026541357</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.003018190562539264</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.002756989838575753</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.002533035280398053</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.002341890149619046</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>-0.1635323180261092</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1027749252670743</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.06265554687962695</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.03608096205295831</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.01847190892641783</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.006841941446668286</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0007748435642356164</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.005683843413726652</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.008758995013741628</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01058994825925287</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.01157748749410491</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01199591077969494</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.01203412451776627</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.01182291827870019</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.01145320196872706</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0109882929498705</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.01047226042611604</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.009935640164583238</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.009399383393948276</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.008877611305038927</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.008379555231783128</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.00791093678172029</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.00747495909160747</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.007073025254404642</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.006705263214604521</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.006370911804709157</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.006068605999095292</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.005796588199765569</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.005552864666480264</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.005335320888180457</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.005141805985544091</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.004970193618792971</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.004818425005154461</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.004684538295484878</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.004566687563568337</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.004463153919011319</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.00437235069333229</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.004292824219100658</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.004223251389340621</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.00416243492436838</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.004109297068441995</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.004062872276379357</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.00402229932129623</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.003986813151824373</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>0.04923156587840215</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.04057136000684124</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03324620002703362</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02731981963049525</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0225804947217637</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01877922778860859</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0157041463287638</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01319310799219413</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01112652984820928</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.009416457230302492</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.007997100231660066</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.006817915148216809</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.00583892797357095</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.00502769284688923</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.004357338441116364</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.00380530070313313</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.003352474984882201</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.002982620610013067</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.002681917836796009</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.002438619157055666</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.002242762000781628</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.002085924392177774</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.001961013156622251</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.001862078610254525</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.001784151917854178</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.001723102442216392</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.001675512972620172</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.001638571007026802</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.001609974426640784</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.001587850018271953</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.001570683403833942</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.001557259040342337</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.001546609060915886</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.001537969836469007</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.001530745246258862</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.00152447575108787</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.001518812463227442</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.001513495501164207</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.00150833600376802</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.001503201257473542</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.001498002461195662</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.001492684717477055</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.001487218894985294</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.001481595057536086</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -567,6 +1470,135 @@
       </c>
       <c r="E8" t="n">
         <v>0.1162960749579115</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07118725299356521</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04582880395016739</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03159698350898715</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02360910998701087</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01910979077405515</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0165496778853449</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01506117858589602</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01416091890024095</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01358133708578721</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01317561130928978</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.01286413087986076</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.01260444725179973</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01237446564721686</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.01216308607762889</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0119650248637158</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0117779750481615</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.01160107021343734</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0114340707083938</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.01127694711292232</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.01112967953646147</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.01099217200024668</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.01086422631070231</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0107455450509775</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.01063574735341609</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.01053438888794177</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.01044098177190774</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.01035501242502839</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.01027595662658272</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.01020329166630659</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.01013650578679241</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.0100751052445594</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.01001861935328985</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.009966603862068952</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.009918642989200964</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.009874350391815792</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.009833369309978583</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.009795372085039935</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.009760059216808106</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.009727158093541664</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.009696421502411803</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.009667626005931903</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.009640570251238035</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.009615073263727528</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_factors_matrix_7.xlsx
+++ b/PLSstatic_predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-0.9423061288776232</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-0.9420766282790181</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>-0.1148524237871778</v>
       </c>
-      <c r="AV3" t="n">
-        <v>-0.1147756579128844</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>-0.006962419359658393</v>
       </c>
-      <c r="AV4" t="n">
-        <v>-0.006806757324254637</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.002533035280398053</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.002341890149619046</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.00402229932129623</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.003986813151824373</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>0.001487218894985294</v>
       </c>
-      <c r="AV7" t="n">
-        <v>0.001481595057536086</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1596,9 +1575,6 @@
       </c>
       <c r="AU8" t="n">
         <v>0.009640570251238035</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0.009615073263727528</v>
       </c>
     </row>
   </sheetData>
